--- a/data/trans_camb/IP2002-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP2002-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,92</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,75</t>
+          <t>-4,32</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>5,85</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>1,68</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 2,57</t>
+          <t>-8,26; 21,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 1,27</t>
+          <t>-16,52; 5,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,13; -0,12</t>
+          <t>-22,55; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 4,35</t>
+          <t>-6,01; 22,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 2,89</t>
+          <t>-4,1; 24,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 3,73</t>
+          <t>-3,89; 24,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 2,49</t>
+          <t>-3,85; 17,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 0,88</t>
+          <t>-6,2; 11,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 0,2</t>
+          <t>-6,22; 12,86</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-18,56%</t>
+          <t>110,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-33,68%</t>
+          <t>-31,81%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-43,18%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>131,38%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-12,92%</t>
+          <t>154,08%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-12,51%</t>
+          <t>154,44%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-9,36%</t>
+          <t>120,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-24,02%</t>
+          <t>52,53%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-30,05%</t>
+          <t>41,32%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-52,23; 42,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-65,3; 22,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-70,36; 3,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-44,69; 72,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-51,87; 51,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,64; 63,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-38,63; 37,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-50,37; 13,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-55,43; 4,33</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-3,75</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-5,19</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,56</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-2,55</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 3,82</t>
+          <t>-5,62; 2,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 4,71</t>
+          <t>-7,24; 1,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 3,49</t>
+          <t>-8,13; -0,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,45; -1,71</t>
+          <t>-4,84; 4,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 4,38</t>
+          <t>-5,78; 2,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 3,01</t>
+          <t>-5,53; 3,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 0,15</t>
+          <t>-3,73; 2,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 3,5</t>
+          <t>-5,17; 0,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 1,83</t>
+          <t>-5,67; 0,2</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>-18,56%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>-33,68%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-17,85%</t>
+          <t>-43,18%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-68,21%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-1,01%</t>
+          <t>-12,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-17,56%</t>
+          <t>-12,51%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-41,48%</t>
+          <t>-9,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>-24,02%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-17,86%</t>
+          <t>-30,05%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-58,66; 131,46</t>
+          <t>-52,23; 42,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-46,76; 166,62</t>
+          <t>-65,3; 22,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-69,19; 105,71</t>
+          <t>-70,36; 3,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-89,64; -25,77</t>
+          <t>-44,69; 72,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,11; 86,05</t>
+          <t>-51,87; 51,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-59,75; 63,95</t>
+          <t>-52,64; 63,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-68,42; 0,69</t>
+          <t>-38,63; 37,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,37; 74,76</t>
+          <t>-50,37; 13,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-49,93; 41,03</t>
+          <t>-55,43; 4,33</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-4,79</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,83</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,85</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>-3,55</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>-1,09</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 21,33</t>
+          <t>-5,87; 4,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 5,84</t>
+          <t>-9,68; -0,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-22,55; 0,0</t>
+          <t>-6,93; 3,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 22,43</t>
+          <t>-4,16; 4,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 24,16</t>
+          <t>-6,68; 1,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 24,47</t>
+          <t>-5,39; 3,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 17,68</t>
+          <t>-3,66; 3,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 11,17</t>
+          <t>-6,59; -0,71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 12,86</t>
+          <t>-4,29; 2,32</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>110,53%</t>
+          <t>-8,48%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-31,81%</t>
+          <t>-57,72%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-18,27%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>131,38%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>154,08%</t>
+          <t>-36,6%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>154,44%</t>
+          <t>-9,98%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>120,46%</t>
+          <t>-2,55%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>52,53%</t>
+          <t>-49,15%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>41,32%</t>
+          <t>-15,05%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,13; 76,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,53; 2,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,31; 76,88</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,39; 127,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,56; 38,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,41; 113,06</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,72; 67,82</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,71; -5,89</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,27; 43,1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-4,79</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-5,19</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-3,55</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>-1,1</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 4,31</t>
+          <t>-3,9; 3,82</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,68; -0,45</t>
+          <t>-2,89; 4,71</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 3,83</t>
+          <t>-4,3; 3,49</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 4,95</t>
+          <t>-9,45; -1,71</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 1,24</t>
+          <t>-4,43; 4,38</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 3,95</t>
+          <t>-5,72; 3,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 3,35</t>
+          <t>-5,14; 0,15</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,59; -0,71</t>
+          <t>-2,69; 3,5</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 2,32</t>
+          <t>-3,84; 1,83</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-8,48%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-57,72%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-18,27%</t>
+          <t>-17,85%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>-68,21%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-36,6%</t>
+          <t>-1,01%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-9,98%</t>
+          <t>-17,56%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-2,55%</t>
+          <t>-41,48%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-49,15%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-15,05%</t>
+          <t>-17,86%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-55,13; 76,5</t>
+          <t>-58,66; 131,46</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-83,53; 2,99</t>
+          <t>-46,76; 166,62</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-62,31; 76,88</t>
+          <t>-69,19; 105,71</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-52,39; 127,56</t>
+          <t>-89,64; -25,77</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-77,56; 38,19</t>
+          <t>-47,11; 86,05</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-62,41; 113,06</t>
+          <t>-59,75; 63,95</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-39,72; 67,82</t>
+          <t>-68,42; 0,69</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-72,71; -5,89</t>
+          <t>-33,37; 74,76</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-51,27; 43,1</t>
+          <t>-49,93; 41,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP2002-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP2002-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 21,33</t>
+          <t>-8,21; 22,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 5,84</t>
+          <t>-14,62; 6,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,55; 0,0</t>
+          <t>-24,02; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 22,43</t>
+          <t>-3,9; 24,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 24,16</t>
+          <t>-6,54; 24,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 24,47</t>
+          <t>-6,32; 25,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 17,68</t>
+          <t>-3,46; 16,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 11,17</t>
+          <t>-5,91; 11,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 12,86</t>
+          <t>-5,98; 13,52</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 6,28</t>
+          <t>-5,51; 6,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 0,73</t>
+          <t>-9,56; 0,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,45; -0,15</t>
+          <t>-10,34; 0,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 3,14</t>
+          <t>-6,72; 2,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 3,45</t>
+          <t>-6,76; 3,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 2,54</t>
+          <t>-7,39; 2,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 3,01</t>
+          <t>-4,75; 3,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 0,5</t>
+          <t>-6,7; 0,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,32; -0,35</t>
+          <t>-6,91; -0,11</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-50,37; 122,23</t>
+          <t>-48,38; 111,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-84,96; 25,61</t>
+          <t>-83,39; 26,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-85,04; 18,84</t>
+          <t>-85,3; 11,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-75,97; 108,9</t>
+          <t>-78,1; 86,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-76,01; 102,26</t>
+          <t>-76,18; 111,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-77,67; 85,72</t>
+          <t>-81,55; 67,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,4; 60,27</t>
+          <t>-50,21; 57,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-72,18; 12,59</t>
+          <t>-70,03; 17,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-74,27; -1,06</t>
+          <t>-75,14; -0,96</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 2,57</t>
+          <t>-6,12; 2,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 1,27</t>
+          <t>-7,47; 0,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,13; -0,12</t>
+          <t>-8,26; 0,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 4,35</t>
+          <t>-4,39; 4,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 2,89</t>
+          <t>-5,64; 3,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 3,73</t>
+          <t>-5,65; 3,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 2,49</t>
+          <t>-3,96; 2,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 0,88</t>
+          <t>-4,99; 0,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 0,2</t>
+          <t>-5,52; 0,62</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-52,23; 42,15</t>
+          <t>-54,42; 39,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-65,3; 22,31</t>
+          <t>-65,36; 19,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-70,36; 3,72</t>
+          <t>-71,33; 9,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-44,69; 72,33</t>
+          <t>-41,4; 76,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-51,87; 51,85</t>
+          <t>-54,25; 53,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-52,64; 63,51</t>
+          <t>-53,54; 53,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-38,63; 37,12</t>
+          <t>-39,08; 31,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-50,37; 13,95</t>
+          <t>-49,94; 14,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-55,43; 4,33</t>
+          <t>-55,99; 9,52</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 4,31</t>
+          <t>-5,42; 4,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,68; -0,45</t>
+          <t>-9,33; -0,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 3,83</t>
+          <t>-6,75; 3,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 4,95</t>
+          <t>-4,43; 4,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 1,24</t>
+          <t>-6,22; 1,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 3,95</t>
+          <t>-5,11; 3,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 3,35</t>
+          <t>-3,98; 3,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,59; -0,71</t>
+          <t>-6,65; -0,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 2,32</t>
+          <t>-4,37; 2,26</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-55,13; 76,5</t>
+          <t>-50,94; 80,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-83,53; 2,99</t>
+          <t>-83,37; -5,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-62,31; 76,88</t>
+          <t>-59,96; 61,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-52,39; 127,56</t>
+          <t>-55,69; 132,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-77,56; 38,19</t>
+          <t>-75,69; 54,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-62,41; 113,06</t>
+          <t>-61,12; 104,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-39,72; 67,82</t>
+          <t>-41,94; 60,4</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-72,71; -5,89</t>
+          <t>-71,74; -7,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-51,27; 43,1</t>
+          <t>-50,3; 41,15</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 3,82</t>
+          <t>-3,57; 3,58</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 4,71</t>
+          <t>-2,68; 4,54</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 3,49</t>
+          <t>-4,35; 3,22</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,45; -1,71</t>
+          <t>-9,25; -1,69</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 4,38</t>
+          <t>-4,84; 4,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 3,01</t>
+          <t>-5,89; 3,35</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 0,15</t>
+          <t>-5,39; -0,02</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 3,5</t>
+          <t>-2,41; 3,45</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 1,83</t>
+          <t>-3,97; 2,14</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-58,66; 131,46</t>
+          <t>-58,71; 117,55</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-46,76; 166,62</t>
+          <t>-50,06; 135,07</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-69,19; 105,71</t>
+          <t>-69,53; 108,18</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-89,64; -25,77</t>
+          <t>-89,74; -25,48</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-47,11; 86,05</t>
+          <t>-49,23; 79,64</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-59,75; 63,95</t>
+          <t>-61,0; 59,35</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-68,42; 0,69</t>
+          <t>-70,23; 5,66</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-33,37; 74,76</t>
+          <t>-32,92; 73,81</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-49,93; 41,03</t>
+          <t>-53,21; 46,62</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 1,86</t>
+          <t>-2,5; 1,91</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,54; -0,19</t>
+          <t>-4,45; -0,32</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,47; -0,13</t>
+          <t>-4,48; -0,38</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 0,76</t>
+          <t>-3,71; 0,52</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 1,29</t>
+          <t>-2,97; 1,35</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 1,17</t>
+          <t>-3,22; 1,26</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 0,66</t>
+          <t>-2,61; 0,5</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,23; -0,23</t>
+          <t>-3,23; -0,31</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,31; -0,16</t>
+          <t>-3,35; -0,09</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-31,7; 32,18</t>
+          <t>-30,06; 32,45</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-54,09; -2,18</t>
+          <t>-53,67; -4,31</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-53,74; -1,53</t>
+          <t>-53,54; -5,93</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-45,78; 13,39</t>
+          <t>-45,39; 9,07</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-39,31; 21,72</t>
+          <t>-36,35; 24,29</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-41,07; 19,61</t>
+          <t>-39,76; 21,45</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-31,82; 10,09</t>
+          <t>-32,47; 7,65</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-40,37; -3,14</t>
+          <t>-40,41; -3,56</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-41,35; -1,41</t>
+          <t>-43,43; -1,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP2002-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP2002-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 22,17</t>
+          <t>-8,44; 22,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 6,08</t>
+          <t>-16,67; 6,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,02; 0,0</t>
+          <t>-20,85; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 24,93</t>
+          <t>-6,79; 22,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 24,04</t>
+          <t>-3,89; 25,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 25,56</t>
+          <t>-3,96; 24,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 16,48</t>
+          <t>-3,95; 15,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 11,65</t>
+          <t>-6,15; 11,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 13,52</t>
+          <t>-5,92; 14,01</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 6,07</t>
+          <t>-5,52; 6,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 0,9</t>
+          <t>-9,58; 0,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 0,01</t>
+          <t>-9,81; 0,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 2,7</t>
+          <t>-6,49; 2,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 3,45</t>
+          <t>-5,98; 3,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 2,07</t>
+          <t>-7,14; 2,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 3,21</t>
+          <t>-4,95; 3,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 0,62</t>
+          <t>-6,81; 0,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,91; -0,11</t>
+          <t>-6,92; -0,26</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,38; 111,6</t>
+          <t>-49,71; 127,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-83,39; 26,39</t>
+          <t>-83,41; 25,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-85,3; 11,22</t>
+          <t>-84,66; 13,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-78,1; 86,6</t>
+          <t>-76,48; 90,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-76,18; 111,28</t>
+          <t>-73,2; 119,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-81,55; 67,34</t>
+          <t>-78,88; 76,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-50,21; 57,28</t>
+          <t>-51,77; 59,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-70,03; 17,3</t>
+          <t>-70,27; 13,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-75,14; -0,96</t>
+          <t>-74,3; -2,1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 2,35</t>
+          <t>-6,0; 2,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 0,84</t>
+          <t>-6,89; 1,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 0,17</t>
+          <t>-7,65; 0,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 4,52</t>
+          <t>-4,54; 4,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 3,22</t>
+          <t>-4,96; 3,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 3,21</t>
+          <t>-5,19; 3,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 2,18</t>
+          <t>-3,97; 2,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 0,93</t>
+          <t>-4,97; 1,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 0,62</t>
+          <t>-5,5; 0,87</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-54,42; 39,32</t>
+          <t>-54,45; 46,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-65,36; 19,06</t>
+          <t>-63,69; 25,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-71,33; 9,46</t>
+          <t>-69,1; 10,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-41,4; 76,12</t>
+          <t>-42,83; 68,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-54,25; 53,81</t>
+          <t>-51,35; 56,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-53,54; 53,17</t>
+          <t>-51,23; 59,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-39,08; 31,88</t>
+          <t>-40,32; 34,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,94; 14,25</t>
+          <t>-49,61; 22,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-55,99; 9,52</t>
+          <t>-55,21; 13,2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 4,27</t>
+          <t>-5,53; 4,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,33; -0,66</t>
+          <t>-9,67; -0,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 3,57</t>
+          <t>-6,57; 3,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 4,94</t>
+          <t>-3,79; 5,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 1,72</t>
+          <t>-6,06; 1,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 3,84</t>
+          <t>-5,18; 3,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 3,25</t>
+          <t>-3,43; 3,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,65; -0,6</t>
+          <t>-6,7; -0,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 2,26</t>
+          <t>-4,73; 2,4</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-50,94; 80,53</t>
+          <t>-51,75; 87,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-83,37; -5,73</t>
+          <t>-84,37; -10,48</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-59,96; 61,81</t>
+          <t>-60,84; 65,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-55,69; 132,23</t>
+          <t>-49,72; 151,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-75,69; 54,0</t>
+          <t>-73,01; 62,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-61,12; 104,56</t>
+          <t>-61,76; 96,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-41,94; 60,4</t>
+          <t>-38,51; 65,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-71,74; -7,0</t>
+          <t>-74,36; -7,97</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-50,3; 41,15</t>
+          <t>-50,66; 43,35</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 3,58</t>
+          <t>-3,19; 4,01</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 4,54</t>
+          <t>-2,8; 4,89</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 3,22</t>
+          <t>-4,12; 2,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,25; -1,69</t>
+          <t>-8,62; -1,41</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 4,34</t>
+          <t>-4,72; 4,39</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 3,35</t>
+          <t>-5,99; 3,53</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,39; -0,02</t>
+          <t>-5,01; 0,14</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 3,45</t>
+          <t>-2,74; 3,48</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 2,14</t>
+          <t>-3,86; 1,89</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-58,71; 117,55</t>
+          <t>-52,66; 129,69</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-50,06; 135,07</t>
+          <t>-46,87; 152,93</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-69,53; 108,18</t>
+          <t>-66,69; 105,55</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-89,74; -25,48</t>
+          <t>-88,03; -12,43</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-49,23; 79,64</t>
+          <t>-49,1; 87,52</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-61,0; 59,35</t>
+          <t>-60,46; 77,08</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-70,23; 5,66</t>
+          <t>-65,99; 5,16</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-32,92; 73,81</t>
+          <t>-36,74; 71,1</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-53,21; 46,62</t>
+          <t>-52,25; 46,17</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 1,91</t>
+          <t>-2,58; 1,84</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,45; -0,32</t>
+          <t>-4,44; -0,35</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,48; -0,38</t>
+          <t>-4,7; -0,39</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 0,52</t>
+          <t>-3,58; 0,6</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 1,35</t>
+          <t>-3,16; 1,35</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 1,26</t>
+          <t>-3,4; 1,24</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 0,5</t>
+          <t>-2,46; 0,73</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,23; -0,31</t>
+          <t>-3,2; -0,24</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,35; -0,09</t>
+          <t>-3,36; -0,25</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-30,06; 32,45</t>
+          <t>-31,45; 30,14</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-53,67; -4,31</t>
+          <t>-52,68; -5,18</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-53,54; -5,93</t>
+          <t>-55,91; -5,02</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-45,39; 9,07</t>
+          <t>-43,2; 12,3</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-36,35; 24,29</t>
+          <t>-38,17; 23,81</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-39,76; 21,45</t>
+          <t>-40,81; 20,8</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-32,47; 7,65</t>
+          <t>-31,79; 12,26</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-40,41; -3,56</t>
+          <t>-40,54; -3,21</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-43,43; -1,38</t>
+          <t>-42,3; -3,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP2002-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP2002-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,20 +531,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores a los que les han extraido dientes por caries o por otro motivo</t>
+          <t>Menores a los que les han extraído dientes por caries o por otro motivo</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,83</t>
+          <t>-3,95</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,85</t>
+          <t>-4,37</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>-2,79</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 22,56</t>
+          <t>-5,31; 4,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,67; 6,15</t>
+          <t>-4,7; 5,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,85; 0,0</t>
+          <t>-5,21; 3,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 22,4</t>
+          <t>-4,33; 6,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 25,68</t>
+          <t>-8,7; 0,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 24,81</t>
+          <t>-9,05; -0,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 15,74</t>
+          <t>-3,32; 3,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 11,49</t>
+          <t>-5,47; 1,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 14,01</t>
+          <t>-5,99; 0,16</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>110,53%</t>
+          <t>-12,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-31,81%</t>
+          <t>-4,23%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-17,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>131,38%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>154,08%</t>
+          <t>-50,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>154,44%</t>
+          <t>-55,99%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>120,46%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>52,53%</t>
+          <t>-32,18%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>41,32%</t>
+          <t>-40,94%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,98; 124,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,33; 148,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,18; 124,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,24; 123,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,67; 14,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,52; 8,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,24; 77,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,14; 28,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,95; 9,14</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,41</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,65</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>-3,69</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,55</t>
+          <t>-2,41</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 6,35</t>
+          <t>-4,84; 4,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 0,73</t>
+          <t>-5,78; 2,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 0,22</t>
+          <t>-5,27; 4,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 2,7</t>
+          <t>-5,62; 2,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 3,41</t>
+          <t>-7,24; 1,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 2,13</t>
+          <t>-8,04; 0,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 3,15</t>
+          <t>-3,73; 2,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 0,24</t>
+          <t>-5,17; 0,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,92; -0,26</t>
+          <t>-5,47; 0,5</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-52,23%</t>
+          <t>-12,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-55,11%</t>
+          <t>-9,07%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-29,71%</t>
+          <t>-18,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-24,5%</t>
+          <t>-33,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-37,65%</t>
+          <t>-42,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-9,4%</t>
+          <t>-9,36%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-41,39%</t>
+          <t>-24,02%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-48,29%</t>
+          <t>-28,42%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-49,71; 127,02</t>
+          <t>-44,69; 72,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-83,41; 25,56</t>
+          <t>-51,87; 51,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-84,66; 13,09</t>
+          <t>-50,36; 75,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-76,48; 90,16</t>
+          <t>-52,23; 42,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-73,2; 119,17</t>
+          <t>-65,3; 22,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,88; 76,05</t>
+          <t>-69,77; 8,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-51,77; 59,81</t>
+          <t>-38,63; 37,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-70,27; 13,46</t>
+          <t>-50,37; 13,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-74,3; -2,1</t>
+          <t>-54,79; 8,69</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,92</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,75</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>-4,79</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>-1,07</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-1,03</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>-3,55</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>-1,22</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 2,77</t>
+          <t>-4,16; 4,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 1,23</t>
+          <t>-6,68; 1,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 0,39</t>
+          <t>-6,31; 2,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 4,37</t>
+          <t>-5,87; 4,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 3,48</t>
+          <t>-9,68; -0,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 3,46</t>
+          <t>-6,52; 4,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 2,35</t>
+          <t>-3,66; 3,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 1,32</t>
+          <t>-6,59; -0,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 0,87</t>
+          <t>-4,51; 2,05</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-18,56%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-33,68%</t>
+          <t>-36,6%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-43,18%</t>
+          <t>-20,95%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>-8,48%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-12,92%</t>
+          <t>-57,72%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-12,51%</t>
+          <t>-12,9%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-9,36%</t>
+          <t>-2,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-24,02%</t>
+          <t>-49,15%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-30,05%</t>
+          <t>-16,91%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-54,45; 46,94</t>
+          <t>-52,39; 127,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-63,69; 25,11</t>
+          <t>-77,56; 38,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-69,1; 10,46</t>
+          <t>-71,48; 80,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-42,83; 68,56</t>
+          <t>-55,13; 76,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-51,35; 56,31</t>
+          <t>-83,53; 2,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-51,23; 59,67</t>
+          <t>-60,17; 91,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-40,32; 34,72</t>
+          <t>-39,72; 67,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,61; 22,43</t>
+          <t>-72,71; -5,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-55,21; 13,2</t>
+          <t>-52,56; 42,89</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-5,19</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,79</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,55</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>-1,1</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 4,59</t>
+          <t>-9,45; -1,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,67; -0,89</t>
+          <t>-4,43; 4,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 3,7</t>
+          <t>-5,72; 2,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 5,61</t>
+          <t>-3,9; 3,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 1,74</t>
+          <t>-2,89; 4,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 3,77</t>
+          <t>-4,21; 3,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 3,29</t>
+          <t>-5,14; 0,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,7; -0,45</t>
+          <t>-2,69; 3,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 2,4</t>
+          <t>-3,81; 1,94</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-8,48%</t>
+          <t>-68,21%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-57,72%</t>
+          <t>-1,01%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-18,27%</t>
+          <t>-17,89%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-36,6%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-9,98%</t>
+          <t>-15,72%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-2,55%</t>
+          <t>-41,48%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-49,15%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-15,05%</t>
+          <t>-17,76%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-51,75; 87,16</t>
+          <t>-89,64; -25,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-84,37; -10,48</t>
+          <t>-47,11; 86,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-60,84; 65,97</t>
+          <t>-60,43; 61,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-49,72; 151,1</t>
+          <t>-58,66; 131,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-73,01; 62,13</t>
+          <t>-46,76; 166,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-61,76; 96,45</t>
+          <t>-68,23; 111,18</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-38,51; 65,23</t>
+          <t>-68,42; 0,69</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-74,36; -7,97</t>
+          <t>-33,37; 74,76</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-50,66; 43,35</t>
+          <t>-50,39; 42,29</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-5,19</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-2,56</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-1,75</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 4,01</t>
+          <t>-3,76; 0,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 4,89</t>
+          <t>-3,15; 1,29</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 2,96</t>
+          <t>-3,5; 1,11</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,62; -1,41</t>
+          <t>-2,62; 1,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 4,39</t>
+          <t>-4,54; -0,19</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 3,53</t>
+          <t>-4,33; 0,15</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 0,14</t>
+          <t>-2,57; 0,66</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 3,48</t>
+          <t>-3,23; -0,23</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 1,89</t>
+          <t>-3,35; -0,11</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>-22,12%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>-12,54%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-17,85%</t>
+          <t>-16,64%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-68,21%</t>
+          <t>-4,85%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-1,01%</t>
+          <t>-33,93%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-17,56%</t>
+          <t>-31,07%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-41,48%</t>
+          <t>-13,13%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>-23,7%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-17,86%</t>
+          <t>-24,38%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-52,66; 129,69</t>
+          <t>-45,78; 13,39</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-46,87; 152,93</t>
+          <t>-39,31; 21,72</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-66,69; 105,55</t>
+          <t>-43,44; 17,79</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-88,03; -12,43</t>
+          <t>-31,7; 32,18</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-49,1; 87,52</t>
+          <t>-54,09; -2,18</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-60,46; 77,08</t>
+          <t>-52,38; 3,16</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-65,99; 5,16</t>
+          <t>-31,82; 10,09</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-36,74; 71,1</t>
+          <t>-40,37; -3,14</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-52,25; 46,17</t>
+          <t>-41,14; -1,49</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-0,35</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-2,47</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-2,41</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-1,57</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-0,89</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-1,06</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-0,94</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-1,71</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-1,77</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-2,58; 1,84</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-4,44; -0,35</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-4,7; -0,39</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-3,58; 0,6</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-3,16; 1,35</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-3,4; 1,24</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-2,46; 0,73</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-3,2; -0,24</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-3,36; -0,25</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-4,85%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-33,93%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-33,14%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-22,12%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-12,54%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-14,99%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-13,13%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-23,7%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-24,61%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-31,45; 30,14</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-52,68; -5,18</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-55,91; -5,02</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-43,2; 12,3</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-38,17; 23,81</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-40,81; 20,8</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-31,79; 12,26</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-40,54; -3,21</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-42,3; -3,69</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
